--- a/document/道具信息.xlsx
+++ b/document/道具信息.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/39f7eda07c2c25ca/文档/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xiazai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="8_{C41CB058-837A-498F-B32B-6EFB5394E7C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{58B11466-5FC2-4B68-809B-DA862FAC47F2}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67D49EBF-6AB0-4B62-8A07-2BD69F07F216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3820" yWindow="3940" windowWidth="19200" windowHeight="13210" xr2:uid="{8D0F753A-E2ED-478E-ACD3-3FFC96F64CAC}"/>
+    <workbookView xWindow="1830" yWindow="470" windowWidth="19200" windowHeight="12850" xr2:uid="{8D0F753A-E2ED-478E-ACD3-3FFC96F64CAC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>道具名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -111,6 +111,15 @@
 再次使用传送到标记位置
 标记平台离开屏幕后标记消失
 只有传送后才进入cd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">阿伟的帮助 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">使用后在你下一次遇到WA时
+将其变为AC </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -506,8 +515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D40D7D1-51A5-4898-8BAC-0636331B3C7B}">
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -879,19 +888,21 @@
       <c r="I30" s="2"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>2</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
+      <c r="A31" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
       <c r="J31" s="1" t="s">
         <v>2</v>
       </c>
@@ -899,69 +910,84 @@
       <c r="L31" s="1"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
     </row>
-    <row r="33" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
     </row>
-    <row r="34" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
     </row>
-    <row r="35" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="21">
+    <mergeCell ref="A31:C35"/>
+    <mergeCell ref="D31:F35"/>
+    <mergeCell ref="G31:I35"/>
+    <mergeCell ref="A21:C25"/>
+    <mergeCell ref="D21:F25"/>
+    <mergeCell ref="G21:I25"/>
+    <mergeCell ref="A26:C30"/>
+    <mergeCell ref="D26:F30"/>
+    <mergeCell ref="G26:I30"/>
+    <mergeCell ref="A11:C15"/>
+    <mergeCell ref="D11:F15"/>
+    <mergeCell ref="G11:I15"/>
+    <mergeCell ref="A16:C20"/>
+    <mergeCell ref="D16:F20"/>
+    <mergeCell ref="G16:I20"/>
     <mergeCell ref="A1:C5"/>
     <mergeCell ref="D1:F5"/>
     <mergeCell ref="G1:I5"/>
     <mergeCell ref="A6:C10"/>
     <mergeCell ref="D6:F10"/>
     <mergeCell ref="G6:I10"/>
-    <mergeCell ref="A11:C15"/>
-    <mergeCell ref="D11:F15"/>
-    <mergeCell ref="G11:I15"/>
-    <mergeCell ref="A16:C20"/>
-    <mergeCell ref="D16:F20"/>
-    <mergeCell ref="G16:I20"/>
-    <mergeCell ref="A21:C25"/>
-    <mergeCell ref="D21:F25"/>
-    <mergeCell ref="G21:I25"/>
-    <mergeCell ref="A26:C30"/>
-    <mergeCell ref="D26:F30"/>
-    <mergeCell ref="G26:I30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
